--- a/Results/NEW_periods/Baseline/Male/meta_analysis_treatment_vs_control.xlsx
+++ b/Results/NEW_periods/Baseline/Male/meta_analysis_treatment_vs_control.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,13 +394,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>43.4150151906905</v>
+        <v>43.41501637732537</v>
       </c>
       <c r="C3">
-        <v>62.21557770919578</v>
+        <v>62.2155919053358</v>
       </c>
       <c r="D3">
-        <v>86.40882207599142</v>
+        <v>86.40885476689654</v>
       </c>
     </row>
     <row r="4">
@@ -410,13 +410,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.08305187558805743</v>
+        <v>0.08305185177882789</v>
       </c>
       <c r="C4">
-        <v>0.3044733801144479</v>
+        <v>0.3044734882949733</v>
       </c>
       <c r="D4">
-        <v>0.6670763288942947</v>
+        <v>0.6670767227068665</v>
       </c>
     </row>
     <row r="5">
@@ -426,13 +426,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2970451642222643</v>
+        <v>0.2970451281813159</v>
       </c>
       <c r="C5">
-        <v>0.5687513343415521</v>
+        <v>0.5687514478983436</v>
       </c>
       <c r="D5">
-        <v>0.8418515760700827</v>
+        <v>0.8418518430936012</v>
       </c>
     </row>
     <row r="6">
@@ -449,13 +449,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>13.55588743997445</v>
+        <v>13.55589194560701</v>
       </c>
       <c r="C7">
-        <v>22.3911111418435</v>
+        <v>22.39109759868253</v>
       </c>
       <c r="D7">
-        <v>34.92810853313016</v>
+        <v>34.92806484539663</v>
       </c>
     </row>
     <row r="8">
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1569852901013961</v>
+        <v>0.1569854918691213</v>
       </c>
       <c r="C8">
-        <v>0.6004280910830582</v>
+        <v>0.6004271768547113</v>
       </c>
       <c r="D8">
-        <v>1.335798803839892</v>
+        <v>1.335795430571468</v>
       </c>
     </row>
     <row r="9">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.408987552193359</v>
+        <v>0.408987775409322</v>
       </c>
       <c r="C9">
-        <v>0.7998547191776843</v>
+        <v>0.7998540327668482</v>
       </c>
       <c r="D9">
-        <v>1.193029370222425</v>
+        <v>1.193027748302593</v>
       </c>
     </row>
     <row r="10">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>9.115532686929786</v>
+        <v>9.115531553365228</v>
       </c>
       <c r="C11">
-        <v>10.88505432977358</v>
+        <v>10.88505355762126</v>
       </c>
       <c r="D11">
-        <v>12.88088330460541</v>
+        <v>12.88088304512077</v>
       </c>
     </row>
     <row r="12">
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.01508900835316471</v>
+        <v>0.01508900280650253</v>
       </c>
       <c r="C12">
-        <v>0.06432120810713389</v>
+        <v>0.06432127698288349</v>
       </c>
       <c r="D12">
-        <v>0.1485706071759154</v>
+        <v>0.148570837962344</v>
       </c>
     </row>
     <row r="13">
@@ -536,13 +536,68 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.1272758950193003</v>
+        <v>0.1272758780208357</v>
       </c>
       <c r="C13">
-        <v>0.2627803620806041</v>
+        <v>0.2627805159770388</v>
       </c>
       <c r="D13">
-        <v>0.3993762725941753</v>
+        <v>0.3993766028508818</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Speed meta analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mean (km/day)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>3.187781843134013</v>
+      </c>
+      <c r="C15">
+        <v>3.714053319368254</v>
+      </c>
+      <c r="D15">
+        <v>4.301081131839839</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CoV² (RVAR)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.01361039429577891</v>
+      </c>
+      <c r="C16">
+        <v>0.05052841464647288</v>
+      </c>
+      <c r="D16">
+        <v>0.1112129518881235</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CoV  (RSTD)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.120301390926437</v>
+      </c>
+      <c r="C17">
+        <v>0.2317945023887313</v>
+      </c>
+      <c r="D17">
+        <v>0.3438847994087175</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,13 +649,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8924378028089095</v>
+        <v>0.8924377766345891</v>
       </c>
       <c r="C3">
-        <v>1.482719750162309</v>
+        <v>1.482719831771361</v>
       </c>
       <c r="D3">
-        <v>2.318365180047996</v>
+        <v>2.318365442301688</v>
       </c>
     </row>
     <row r="4">
@@ -610,13 +665,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.03580328806499242</v>
+        <v>0.03580327817873998</v>
       </c>
       <c r="C4">
-        <v>0.2916147841734048</v>
+        <v>0.2916148262838491</v>
       </c>
       <c r="D4">
-        <v>0.8097095951319812</v>
+        <v>0.8097097943181886</v>
       </c>
     </row>
     <row r="5">
@@ -626,13 +681,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.200598305444973</v>
+        <v>0.2005982807328768</v>
       </c>
       <c r="C5">
-        <v>0.572493516392435</v>
+        <v>0.5724935662415689</v>
       </c>
       <c r="D5">
-        <v>0.9539606184979179</v>
+        <v>0.9539607500205403</v>
       </c>
     </row>
     <row r="6">
@@ -649,13 +704,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>29.38288006808568</v>
+        <v>29.38287136681903</v>
       </c>
       <c r="C7">
-        <v>40.33556651540378</v>
+        <v>40.33554768163637</v>
       </c>
       <c r="D7">
-        <v>54.0394603476154</v>
+        <v>54.03942886010705</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +720,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.01770612829768711</v>
+        <v>0.017706117717383</v>
       </c>
       <c r="C8">
-        <v>0.1202709742707453</v>
+        <v>0.1202710342982784</v>
       </c>
       <c r="D8">
-        <v>0.3190113901127274</v>
+        <v>0.3190116413560197</v>
       </c>
     </row>
     <row r="9">
@@ -681,13 +736,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.1401627544606929</v>
+        <v>0.1401627180412515</v>
       </c>
       <c r="C9">
-        <v>0.36530131430232</v>
+        <v>0.3653014196879659</v>
       </c>
       <c r="D9">
-        <v>0.59494102178836</v>
+        <v>0.5949412792327863</v>
       </c>
     </row>
     <row r="10">
@@ -704,13 +759,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>7.854509919822029</v>
+        <v>7.854514005431656</v>
       </c>
       <c r="C11">
-        <v>11.53684391721323</v>
+        <v>11.5368521042755</v>
       </c>
       <c r="D11">
-        <v>16.31704187970432</v>
+        <v>16.31705476738479</v>
       </c>
     </row>
     <row r="12">
@@ -720,13 +775,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.01695679527306747</v>
+        <v>0.01695684690716749</v>
       </c>
       <c r="C12">
-        <v>0.1584792050415884</v>
+        <v>0.1584788789454684</v>
       </c>
       <c r="D12">
-        <v>0.4544522042912972</v>
+        <v>0.4544507422679111</v>
       </c>
     </row>
     <row r="13">
@@ -736,13 +791,68 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.1387218817511401</v>
+        <v>0.1387220680607462</v>
       </c>
       <c r="C13">
-        <v>0.4240911649879304</v>
+        <v>0.4240906525570559</v>
       </c>
       <c r="D13">
-        <v>0.7181533490252799</v>
+        <v>0.7181520649451167</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Speed meta analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mean (km/day)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>3.890621297764927</v>
+      </c>
+      <c r="C15">
+        <v>4.502646334156091</v>
+      </c>
+      <c r="D15">
+        <v>5.180288057555789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CoV² (RVAR)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.002988245315773836</v>
+      </c>
+      <c r="C16">
+        <v>0.02368412071564556</v>
+      </c>
+      <c r="D16">
+        <v>0.06532771068280042</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CoV  (RSTD)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.05789683738708705</v>
+      </c>
+      <c r="C17">
+        <v>0.1629954008527747</v>
+      </c>
+      <c r="D17">
+        <v>0.2707044761453327</v>
       </c>
     </row>
   </sheetData>
